--- a/Team-Data/2013-14/2-19-2013-14.xlsx
+++ b/Team-Data/2013-14/2-19-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>0.472</v>
+        <v>0.481</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N2" t="n">
         <v>0.373</v>
       </c>
       <c r="O2" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S2" t="n">
         <v>31.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.3</v>
@@ -732,37 +799,37 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB2" t="n">
         <v>101.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -771,16 +838,16 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -801,25 +868,25 @@
         <v>25</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,25 +933,25 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N3" t="n">
         <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P3" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
         <v>0.766</v>
@@ -899,7 +966,7 @@
         <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
         <v>15.5</v>
@@ -911,22 +978,22 @@
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
         <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB3" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -947,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -971,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>26</v>
       </c>
       <c r="AV3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW3" t="n">
         <v>23</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>24</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -995,10 +1062,10 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.481</v>
+        <v>0.471</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
         <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>8</v>
@@ -1060,31 +1127,31 @@
         <v>21.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O4" t="n">
         <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
         <v>7.9</v>
@@ -1093,31 +1160,31 @@
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1168,13 +1235,13 @@
         <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.455</v>
+        <v>0.444</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J5" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R5" t="n">
         <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V5" t="n">
         <v>12.6</v>
@@ -1272,7 +1339,7 @@
         <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
@@ -1284,19 +1351,19 @@
         <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1305,13 +1372,13 @@
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1335,13 +1402,13 @@
         <v>28</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1362,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.528</v>
+        <v>0.519</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
@@ -1412,25 +1479,25 @@
         <v>34.3</v>
       </c>
       <c r="J6" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="L6" t="n">
         <v>5.9</v>
       </c>
       <c r="M6" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O6" t="n">
         <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.77</v>
@@ -1439,10 +1506,10 @@
         <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U6" t="n">
         <v>22.2</v>
@@ -1460,25 +1527,25 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
         <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1508,16 +1575,16 @@
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1526,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
@@ -1594,7 +1661,7 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K7" t="n">
         <v>0.425</v>
@@ -1606,58 +1673,58 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R7" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
         <v>3.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
         <v>20.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.5</v>
+        <v>-4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1684,13 +1751,13 @@
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
@@ -1699,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
         <v>27</v>
@@ -1711,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="BA7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1887,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-1.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>18</v>
@@ -2042,13 +2109,13 @@
         <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2063,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
         <v>4</v>
@@ -2072,10 +2139,10 @@
         <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>0.407</v>
+        <v>0.415</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,7 +2207,7 @@
         <v>38.6</v>
       </c>
       <c r="J10" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
@@ -2149,55 +2216,55 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.311</v>
+        <v>0.309</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.666</v>
+        <v>0.665</v>
       </c>
       <c r="R10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U10" t="n">
         <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W10" t="n">
         <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z10" t="n">
         <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
         <v>10</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2248,13 +2315,13 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>3</v>
@@ -2263,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2272,10 +2339,10 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.593</v>
+        <v>0.585</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2328,43 +2395,43 @@
         <v>0.459</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.381</v>
+        <v>0.384</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
         <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R11" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="T11" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V11" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
@@ -2376,16 +2443,16 @@
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
         <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
@@ -2406,16 +2473,16 @@
         <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2439,10 +2506,10 @@
         <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -2486,64 +2553,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>79.3</v>
+        <v>78.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
         <v>34</v>
       </c>
       <c r="T12" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
         <v>5.8</v>
@@ -2552,22 +2619,22 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>105.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2588,16 +2655,16 @@
         <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2606,22 +2673,22 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2630,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -2668,82 +2735,82 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
         <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.759</v>
+        <v>0.774</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R13" t="n">
         <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2752,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>2</v>
@@ -2776,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2785,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,16 +2861,16 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2812,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -2952,16 +3019,16 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3053,7 +3120,7 @@
         <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L15" t="n">
         <v>9.199999999999999</v>
@@ -3062,34 +3129,34 @@
         <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O15" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U15" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3104,10 +3171,10 @@
         <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
@@ -3134,13 +3201,13 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3155,16 +3222,16 @@
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3179,13 +3246,13 @@
         <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3304,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
@@ -3343,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3352,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
@@ -3361,13 +3428,13 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
@@ -3501,10 +3568,10 @@
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,10 +3750,10 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3701,19 +3768,19 @@
         <v>14</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>0.481</v>
+        <v>0.472</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,34 +3845,34 @@
         <v>38.4</v>
       </c>
       <c r="J19" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N19" t="n">
         <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="R19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S19" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T19" t="n">
         <v>45.7</v>
@@ -3817,25 +3884,25 @@
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB19" t="n">
         <v>105.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD19" t="n">
         <v>10</v>
@@ -3844,10 +3911,10 @@
         <v>14</v>
       </c>
       <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
         <v>15</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3856,16 +3923,16 @@
         <v>10</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -3895,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.434</v>
+        <v>0.442</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,7 +4027,7 @@
         <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3969,19 +4036,19 @@
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P20" t="n">
         <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R20" t="n">
         <v>12.2</v>
@@ -3993,7 +4060,7 @@
         <v>42.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
         <v>13.8</v>
@@ -4002,7 +4069,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4011,16 +4078,16 @@
         <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4035,7 +4102,7 @@
         <v>13</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4071,10 +4138,10 @@
         <v>17</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
@@ -4092,7 +4159,7 @@
         <v>21</v>
       </c>
       <c r="BB20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>33</v>
       </c>
       <c r="G21" t="n">
-        <v>0.389</v>
+        <v>0.377</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4154,7 +4221,7 @@
         <v>24.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O21" t="n">
         <v>14.8</v>
@@ -4163,22 +4230,22 @@
         <v>19.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W21" t="n">
         <v>7.8</v>
@@ -4187,10 +4254,10 @@
         <v>4.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
         <v>19.7</v>
@@ -4199,7 +4266,7 @@
         <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
         <v>10</v>
@@ -4232,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,13 +4308,13 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4259,10 +4326,10 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4402,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4426,19 +4493,19 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4453,10 +4520,10 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.286</v>
+        <v>0.291</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
@@ -4506,34 +4573,34 @@
         <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P23" t="n">
         <v>21.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R23" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
         <v>42.1</v>
@@ -4542,7 +4609,7 @@
         <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
@@ -4554,19 +4621,19 @@
         <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA23" t="n">
         <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4578,13 +4645,13 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4596,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
@@ -4611,22 +4678,22 @@
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
@@ -4784,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4817,7 +4884,7 @@
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.457</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O25" t="n">
         <v>18.5</v>
@@ -4891,7 +4958,7 @@
         <v>24.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4903,10 +4970,10 @@
         <v>43.6</v>
       </c>
       <c r="U25" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
         <v>8.300000000000001</v>
@@ -4921,19 +4988,19 @@
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -4996,13 +5063,13 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.679</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J26" t="n">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="K26" t="n">
         <v>0.452</v>
@@ -5061,19 +5128,19 @@
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
         <v>12.8</v>
@@ -5082,16 +5149,16 @@
         <v>33.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
@@ -5109,22 +5176,22 @@
         <v>107.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
         <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5142,19 +5209,19 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5166,7 +5233,7 @@
         <v>4</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5175,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5234,7 +5301,7 @@
         <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.446</v>
@@ -5243,10 +5310,10 @@
         <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O27" t="n">
         <v>20.3</v>
@@ -5255,43 +5322,43 @@
         <v>26.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
         <v>22.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
         <v>10</v>
@@ -5318,13 +5385,13 @@
         <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
         <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5333,13 +5400,13 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR27" t="n">
         <v>8</v>
       </c>
-      <c r="AR27" t="n">
-        <v>7</v>
-      </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5348,7 +5415,7 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>21</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.727</v>
+        <v>0.722</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J28" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.49</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
         <v>15.3</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q28" t="n">
         <v>0.775</v>
@@ -5443,13 +5510,13 @@
         <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5464,19 +5531,19 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA28" t="n">
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5533,10 +5600,10 @@
         <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
@@ -5545,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
         <v>29</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.537</v>
+        <v>0.547</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5604,34 +5671,34 @@
         <v>0.439</v>
       </c>
       <c r="L29" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O29" t="n">
         <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R29" t="n">
         <v>11.9</v>
       </c>
       <c r="S29" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
         <v>14</v>
@@ -5643,7 +5710,7 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
         <v>22.7</v>
@@ -5652,10 +5719,10 @@
         <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
         <v>10</v>
@@ -5679,16 +5746,16 @@
         <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>8</v>
@@ -5706,10 +5773,10 @@
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,7 +5785,7 @@
         <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5789,28 +5856,28 @@
         <v>6.7</v>
       </c>
       <c r="M30" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N30" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
         <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
@@ -5819,34 +5886,34 @@
         <v>14.7</v>
       </c>
       <c r="W30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC30" t="n">
         <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
         <v>24</v>
@@ -5855,37 +5922,37 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
       </c>
       <c r="AK30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL30" t="n">
         <v>24</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5894,13 +5961,13 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.481</v>
+        <v>0.472</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J31" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M31" t="n">
         <v>20.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.382</v>
+        <v>0.378</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.728</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
         <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
         <v>8.699999999999999</v>
@@ -6007,19 +6074,19 @@
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
         <v>10</v>
@@ -6028,16 +6095,16 @@
         <v>14</v>
       </c>
       <c r="AF31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG31" t="n">
         <v>15</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6052,13 +6119,13 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
@@ -6091,13 +6158,13 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-19-2013-14</t>
+          <t>2014-02-19</t>
         </is>
       </c>
     </row>
